--- a/biology/Zoologie/Chaetodon_xanthocephalus/Chaetodon_xanthocephalus.xlsx
+++ b/biology/Zoologie/Chaetodon_xanthocephalus/Chaetodon_xanthocephalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poisson-papillon à tête jaune
 Chaetodon xanthocephalus, communément nommé Poisson-papillon à tête jaune, est une espèce de poisson marin de la famille des Chaetodontidae.
@@ -512,10 +524,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand poisson-papillon, dont la taille maximale est de 20 cm[1]. Très aplati latéralement, il possède un petit museau pointu à l'avant, suivi par un front presque vertical montant très haut au-dessus de l’œil. Les flancs sont blancs et portent de discrets chevrons gris bleuté. Les nageoires dorsale et anale, grandes et arrondies, sont jaune-orangé foncé liserées de jaune vif après une étroite bande noire et blanc-bleuté, ce jaune vif faisant quasiment le tour du corps par une fine ligne qui vient s'élargir à l'avant pour recouvrir la gorge et le visage, ce qui donne son nom scientifique à ce poisson (en grec : xanthos = jaune, cephalos = tête). L'opercule est également marqué de jaune. L’œil, enfin, est légèrement barré d'une strie verticale noire[2]. 
-La nageoire dorsale comporte 13-14 épines dures, suivies de 21-26 rayons mous[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand poisson-papillon, dont la taille maximale est de 20 cm. Très aplati latéralement, il possède un petit museau pointu à l'avant, suivi par un front presque vertical montant très haut au-dessus de l’œil. Les flancs sont blancs et portent de discrets chevrons gris bleuté. Les nageoires dorsale et anale, grandes et arrondies, sont jaune-orangé foncé liserées de jaune vif après une étroite bande noire et blanc-bleuté, ce jaune vif faisant quasiment le tour du corps par une fine ligne qui vient s'élargir à l'avant pour recouvrir la gorge et le visage, ce qui donne son nom scientifique à ce poisson (en grec : xanthos = jaune, cephalos = tête). L'opercule est également marqué de jaune. L’œil, enfin, est légèrement barré d'une strie verticale noire. 
+La nageoire dorsale comporte 13-14 épines dures, suivies de 21-26 rayons mous.
 			Aux Maldives.
 			À la Réunion
 			En livrée nocturne, à Mayotte.
@@ -547,9 +561,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Poisson-papillon à tête jaune est présent dans les eaux tropicales de l'Océan Indien[3]. Il vit à faible profondeur, en association avec les récifs de corail[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Poisson-papillon à tête jaune est présent dans les eaux tropicales de l'Océan Indien. Il vit à faible profondeur, en association avec les récifs de corail. 
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un poisson-papillon plutôt solitaire, et relativement omnivore. La reproduction donne lieu à une ponte pélagique (en pleine eau), et les œufs puis larves font donc partie du plancton le temps de leur maturation[4]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un poisson-papillon plutôt solitaire, et relativement omnivore. La reproduction donne lieu à une ponte pélagique (en pleine eau), et les œufs puis larves font donc partie du plancton le temps de leur maturation. 
 </t>
         </is>
       </c>
